--- a/hardware component.xlsx
+++ b/hardware component.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$A$126</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="126">
   <si>
     <t>General Purpose Board</t>
   </si>
@@ -388,6 +388,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Bread board</t>
+  </si>
+  <si>
+    <t>Chandni Chowk price</t>
+  </si>
+  <si>
+    <t>Online price</t>
+  </si>
+  <si>
+    <t>Hardware / Software listed on site</t>
   </si>
 </sst>
 </file>
@@ -735,93 +744,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A126"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="31.5">
+    <row r="3" spans="1:3" ht="31.5">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75">
+    <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75">
+    <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75">
+    <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75">
+    <row r="7" spans="1:3" ht="15.75">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75">
+    <row r="8" spans="1:3" ht="15.75">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="31.5">
+    <row r="9" spans="1:3" ht="31.5">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75">
+    <row r="10" spans="1:3" ht="15.75">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75">
+    <row r="11" spans="1:3" ht="15.75">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75">
+    <row r="12" spans="1:3" ht="15.75">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.75">
+    <row r="13" spans="1:3" ht="15.75">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.75">
+    <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.75">
+    <row r="15" spans="1:3" ht="15.75">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75">
+    <row r="16" spans="1:3" ht="15.75">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1370,7 +1387,9 @@
       </c>
     </row>
     <row r="126" spans="1:1" ht="15.75">
-      <c r="A126" s="3"/>
+      <c r="A126" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A126"/>

--- a/hardware component.xlsx
+++ b/hardware component.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -402,8 +402,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,6 +456,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -502,7 +510,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -534,9 +542,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -568,6 +577,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -743,21 +753,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="44" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>125</v>
       </c>
@@ -768,625 +778,625 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="31.5">
+    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.5">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75">
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75">
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75">
+    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="31.5">
+    <row r="18" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75">
+    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75">
+    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="31.5">
+    <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.75">
+    <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.75">
+    <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75">
+    <row r="24" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.75">
+    <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15.75">
+    <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.75">
+    <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15.75">
+    <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15.75">
+    <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15.75">
+    <row r="30" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15.75">
+    <row r="31" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="31.5">
+    <row r="32" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.75">
+    <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="31.5">
+    <row r="34" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.75">
+    <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15.75">
+    <row r="36" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="31.5">
+    <row r="37" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15.75">
+    <row r="38" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15.75">
+    <row r="39" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15.75">
+    <row r="40" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15.75">
+    <row r="41" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="31.5">
+    <row r="42" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15.75">
+    <row r="43" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75">
+    <row r="44" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15.75">
+    <row r="45" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15.75">
+    <row r="46" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="15.75">
+    <row r="47" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15.75">
+    <row r="48" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15.75">
+    <row r="49" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="47.25">
+    <row r="50" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15.75">
+    <row r="51" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15.75">
+    <row r="52" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15.75">
+    <row r="53" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15.75">
+    <row r="54" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15.75">
+    <row r="55" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15.75">
+    <row r="56" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15.75">
+    <row r="57" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15.75">
+    <row r="58" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15.75">
+    <row r="59" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15.75">
+    <row r="60" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15.75">
+    <row r="61" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15.75">
+    <row r="62" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="31.5">
+    <row r="63" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="31.5">
+    <row r="64" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15.75">
+    <row r="65" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="31.5">
+    <row r="66" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="15.75">
+    <row r="67" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="15.75">
+    <row r="68" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="15.75">
+    <row r="69" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="15.75">
+    <row r="70" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="15.75">
+    <row r="71" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="15.75">
+    <row r="72" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15.75">
+    <row r="73" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="15.75">
+    <row r="74" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="15.75">
+    <row r="75" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="15.75">
+    <row r="76" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15.75">
+    <row r="77" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="15.75">
+    <row r="78" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="15.75">
+    <row r="79" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="15.75">
+    <row r="80" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="15.75">
+    <row r="81" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="15.75">
+    <row r="82" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="15.75">
+    <row r="83" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="15.75">
+    <row r="84" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="15.75">
+    <row r="85" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="15.75">
+    <row r="86" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="15.75">
+    <row r="87" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="15.75">
+    <row r="88" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="15.75">
+    <row r="89" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="47.25">
+    <row r="90" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15.75">
+    <row r="91" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="15.75">
+    <row r="92" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="15.75">
+    <row r="93" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="31.5">
+    <row r="94" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75">
+    <row r="96" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="15.75">
+    <row r="97" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="15.75">
+    <row r="98" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="31.5">
+    <row r="99" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="15.75">
+    <row r="100" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="31.5">
+    <row r="101" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="31.5">
+    <row r="102" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="15.75">
+    <row r="103" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="31.5">
+    <row r="104" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="15.75">
+    <row r="105" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="15.75">
+    <row r="106" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="31.5">
+    <row r="107" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="15.75">
+    <row r="108" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="15.75">
+    <row r="109" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="15.75">
+    <row r="110" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="31.5">
+    <row r="111" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="15.75">
+    <row r="112" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="31.5">
+    <row r="113" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="31.5">
+    <row r="114" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="15.75">
+    <row r="115" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="15.75">
+    <row r="116" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="15.75">
+    <row r="117" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="15.75">
+    <row r="118" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="31.5">
+    <row r="119" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="31.5">
+    <row r="120" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="15.75">
+    <row r="121" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="15.75">
+    <row r="122" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="15.75">
+    <row r="123" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="15.75">
+    <row r="124" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="15.75">
+    <row r="125" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="15.75">
+    <row r="126" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>0</v>
       </c>
@@ -1399,24 +1409,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
